--- a/case study propionate/test_scripts/output_bm.xlsx
+++ b/case study propionate/test_scripts/output_bm.xlsx
@@ -473,12 +473,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -532,22 +532,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>0.48</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>0.48</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.15</t>
         </is>
       </c>
     </row>
@@ -633,17 +633,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -692,22 +692,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
